--- a/data/experts/qualitative_analysis_data/first_round/Jason.xlsx
+++ b/data/experts/qualitative_analysis_data/first_round/Jason.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ec2aeda8e659f0c/Documents/GitHub/TOCHI-2024/data/experts/qualitative_analysis_data/first_round/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_BC4A9A3A1E7904D6452EA6FD98580FF07BBEDD30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07393FF0-1AA3-4531-85F8-17A809B64D53}"/>
+  <bookViews>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Raw" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Interview Analysis (Felipe)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Interview Analysis (Haley)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Interview Analysis (Chandler)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Interview Analysis (Discussion)" sheetId="5" r:id="rId8"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Interview Analysis (Reviewer 1)" sheetId="2" r:id="rId2"/>
+    <sheet name="Interview Analysis (Reviewer 2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Interview Analysis (Reviewer 3)" sheetId="4" r:id="rId4"/>
+    <sheet name="Interview Analysis (Discussion)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -429,48 +438,58 @@
     <t>Fun to use; Godmode is better;</t>
   </si>
   <si>
-    <t>Codes (Felipe)</t>
-  </si>
-  <si>
-    <t>Codes (Haley)</t>
-  </si>
-  <si>
-    <t>Codes (Chandler)</t>
-  </si>
-  <si>
     <t>Codes (After discussion)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 1)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 2)</t>
+  </si>
+  <si>
+    <t>Codes (Reviewer 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -478,7 +497,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -500,111 +519,113 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -794,24 +815,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +868,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" ht="165" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -871,7 +897,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -900,37 +926,37 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -959,7 +985,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -988,7 +1014,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1043,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1072,7 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1075,11 +1101,11 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1104,12 +1130,12 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1164,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1193,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -1196,27 +1222,27 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
@@ -1245,7 +1271,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1274,7 +1300,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="150" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1303,7 +1329,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1358,7 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
@@ -1361,397 +1387,399 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" ht="105" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" ht="135" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" ht="75" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" ht="60" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" ht="30" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A101">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +1810,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1811,7 +1839,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1840,7 +1868,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1897,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +1926,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1927,62 +1955,62 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -2011,7 +2039,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2068,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2069,7 +2097,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +2126,7 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -2127,7 +2155,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -2156,12 +2184,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -2190,11 +2218,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="150" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C26" s="3"/>
@@ -2221,7 +2249,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -2250,15 +2278,15 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -2287,7 +2315,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -2316,20 +2344,20 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -2358,12 +2386,12 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -2392,7 +2420,7 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2449,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
@@ -2450,52 +2478,52 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
@@ -2524,7 +2552,7 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -2553,7 +2581,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
@@ -2582,7 +2610,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
@@ -2611,7 +2639,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +2668,7 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
@@ -2669,7 +2697,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
@@ -2698,7 +2726,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
@@ -2727,7 +2755,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -2756,7 +2784,7 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
@@ -2785,301 +2813,302 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A101">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF1C232"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -3106,11 +3135,11 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="180.75" customHeight="1">
+    <row r="2" spans="1:25" ht="180.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3135,11 +3164,11 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3164,11 +3193,11 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3193,11 +3222,11 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C5" s="3"/>
@@ -3224,11 +3253,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="3"/>
@@ -3255,85 +3284,85 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="3"/>
@@ -3360,11 +3389,11 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3389,11 +3418,11 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="3"/>
@@ -3420,11 +3449,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3449,11 +3478,11 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="3"/>
@@ -3480,10 +3509,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3508,16 +3538,17 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -3542,11 +3573,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="150" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="3"/>
@@ -3573,11 +3604,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3602,17 +3633,17 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="3"/>
@@ -3639,11 +3670,11 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3668,24 +3699,25 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C33" s="3"/>
@@ -3712,19 +3744,19 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -3749,11 +3781,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="3"/>
@@ -3780,11 +3812,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="3"/>
@@ -3811,67 +3843,67 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="12"/>
-    </row>
-    <row r="42">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="12"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -3896,11 +3928,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -3925,11 +3957,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3954,11 +3986,11 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3983,11 +4015,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4012,11 +4044,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4041,11 +4073,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="12"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4070,11 +4102,11 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="12"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4099,11 +4131,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4128,11 +4160,11 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4157,343 +4189,347 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="12"/>
-    </row>
-    <row r="59">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="12"/>
-    </row>
-    <row r="62">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="10"/>
-    </row>
-    <row r="63">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="10"/>
-    </row>
-    <row r="67">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="10"/>
-    </row>
-    <row r="68">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="10"/>
-    </row>
-    <row r="70">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="B73" s="13"/>
+    </row>
+    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="10"/>
-    </row>
-    <row r="76">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="10"/>
-    </row>
-    <row r="78">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="B78" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="10"/>
-    </row>
-    <row r="80">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="10"/>
-    </row>
-    <row r="82">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="10"/>
-    </row>
-    <row r="86">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="B86" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="10"/>
-    </row>
-    <row r="88">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="10"/>
-    </row>
-    <row r="90">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="B90" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="10"/>
-    </row>
-    <row r="92">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="B92" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="10"/>
-    </row>
-    <row r="94">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="B94" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="10"/>
-    </row>
-    <row r="96">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="B96" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="10"/>
-    </row>
-    <row r="98">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="10"/>
-    </row>
-    <row r="100">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="10"/>
-    </row>
-    <row r="102">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
-      <c r="B102" s="10"/>
-    </row>
-    <row r="103">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
-      <c r="B103" s="10"/>
-    </row>
-    <row r="104">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
-      <c r="B104" s="10"/>
-    </row>
-    <row r="105">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
-      <c r="B105" s="10"/>
-    </row>
-    <row r="106">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
-      <c r="B106" s="10"/>
-    </row>
-    <row r="107">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
-      <c r="B107" s="10"/>
-    </row>
-    <row r="108">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
-      <c r="B108" s="10"/>
-    </row>
-    <row r="109">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
-      <c r="B109" s="10"/>
-    </row>
-    <row r="110">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
-      <c r="B110" s="10"/>
+      <c r="B110" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4503,34 +4539,35 @@
     <mergeCell ref="B72:B74"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:A101">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6AA84F"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="2" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -4557,11 +4594,11 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4586,11 +4623,11 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4615,11 +4652,11 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4644,11 +4681,11 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -4673,11 +4710,11 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4702,77 +4739,77 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8">
+      <c r="B7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4797,11 +4834,11 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4826,11 +4863,11 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4855,11 +4892,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -4884,11 +4921,11 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4913,11 +4950,11 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -4942,17 +4979,17 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15"/>
-    </row>
-    <row r="25">
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -4977,11 +5014,11 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="150" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C26" s="3"/>
@@ -5008,11 +5045,11 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -5037,19 +5074,19 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C29" s="3"/>
@@ -5076,11 +5113,11 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5105,27 +5142,27 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C33" s="3"/>
@@ -5152,17 +5189,17 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="14"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5187,11 +5224,11 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C36" s="3"/>
@@ -5218,11 +5255,11 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="14"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -5247,65 +5284,65 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="15"/>
-    </row>
-    <row r="39">
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="15"/>
-    </row>
-    <row r="41">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="15"/>
-    </row>
-    <row r="43">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47">
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="14"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -5330,11 +5367,11 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -5359,11 +5396,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -5388,11 +5425,11 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -5417,11 +5454,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5446,11 +5483,11 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="14"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5475,11 +5512,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5504,11 +5541,11 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="14"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5533,11 +5570,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="14"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5562,11 +5599,11 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5591,374 +5628,377 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="15"/>
-    </row>
-    <row r="58">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="15"/>
-    </row>
-    <row r="59">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="15"/>
-    </row>
-    <row r="62">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="15"/>
-    </row>
-    <row r="63">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="17"/>
-    </row>
-    <row r="64">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="15"/>
-    </row>
-    <row r="67">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" ht="135" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="15"/>
-    </row>
-    <row r="70">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="15"/>
-    </row>
-    <row r="71">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" ht="75" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="15"/>
-    </row>
-    <row r="74">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="15"/>
-    </row>
-    <row r="76">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="15"/>
-    </row>
-    <row r="78">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="15"/>
-    </row>
-    <row r="79">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="15"/>
-    </row>
-    <row r="80">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="15"/>
-    </row>
-    <row r="82">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="15"/>
-    </row>
-    <row r="83">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="15"/>
-    </row>
-    <row r="84">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" ht="60" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="15"/>
-    </row>
-    <row r="86">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="15"/>
-    </row>
-    <row r="87">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="15"/>
-    </row>
-    <row r="88">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="15"/>
-    </row>
-    <row r="90">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="15"/>
-    </row>
-    <row r="91">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="15"/>
-    </row>
-    <row r="92">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="15"/>
-    </row>
-    <row r="93">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="15"/>
-    </row>
-    <row r="94">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="15"/>
-    </row>
-    <row r="95">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="15"/>
-    </row>
-    <row r="96">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="15"/>
-    </row>
-    <row r="97">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="15"/>
-    </row>
-    <row r="98">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="15"/>
-    </row>
-    <row r="99">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="15"/>
-    </row>
-    <row r="100">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="15"/>
-    </row>
-    <row r="102">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
-      <c r="B102" s="15"/>
-    </row>
-    <row r="103">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
-      <c r="B103" s="15"/>
-    </row>
-    <row r="104">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
-      <c r="B104" s="15"/>
-    </row>
-    <row r="105">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
-      <c r="B105" s="15"/>
-    </row>
-    <row r="106">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
-      <c r="B106" s="15"/>
-    </row>
-    <row r="107">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
-      <c r="B107" s="15"/>
-    </row>
-    <row r="108">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
-      <c r="B108" s="15"/>
-    </row>
-    <row r="109">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
-      <c r="B109" s="15"/>
-    </row>
-    <row r="110">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
-      <c r="B110" s="15"/>
+      <c r="B110" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A101">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Participant">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Participant">
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF3C78D8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="67.88"/>
-    <col customWidth="1" min="2" max="5" width="56.88"/>
+    <col min="1" max="1" width="67.88671875" customWidth="1"/>
+    <col min="2" max="5" width="56.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -5981,13 +6021,13 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row r="2" ht="107.25" customHeight="1">
+    <row r="2" spans="1:25" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6010,13 +6050,13 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6039,12 +6079,12 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -6068,20 +6108,20 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F5" s="3"/>
@@ -6105,20 +6145,20 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="3"/>
@@ -6142,130 +6182,130 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F18" s="3"/>
@@ -6289,12 +6329,12 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6318,20 +6358,20 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="B20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F20" s="3"/>
@@ -6355,12 +6395,12 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6384,20 +6424,20 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" ht="25.2" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F22" s="3"/>
@@ -6421,12 +6461,12 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6450,30 +6490,30 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="D24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6496,20 +6536,20 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:25" ht="150" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="3"/>
@@ -6533,13 +6573,13 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6562,35 +6602,35 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F29" s="3"/>
@@ -6614,13 +6654,13 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6643,54 +6683,54 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:25" ht="105" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="7" t="s">
         <v>126</v>
       </c>
       <c r="F33" s="3"/>
@@ -6714,30 +6754,30 @@
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6760,20 +6800,20 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="B36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="8" t="s">
         <v>127</v>
       </c>
       <c r="F36" s="3"/>
@@ -6797,20 +6837,20 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="B37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F37" s="3"/>
@@ -6834,116 +6874,116 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42">
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="B42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="90" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44">
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46">
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -6966,20 +7006,20 @@
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="B48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F48" s="3"/>
@@ -7003,13 +7043,13 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -7032,20 +7072,20 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="B50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F50" s="3"/>
@@ -7069,13 +7109,13 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="14"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -7098,20 +7138,20 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="B52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F52" s="3"/>
@@ -7135,13 +7175,13 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="14"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -7164,20 +7204,20 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="B54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F54" s="3"/>
@@ -7201,13 +7241,13 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:25" ht="45" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="14"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -7230,20 +7270,20 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="B56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F56" s="3"/>
@@ -7267,592 +7307,592 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58">
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59">
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60">
+      <c r="B59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="15" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:25" ht="30" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="D63" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="75" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A65" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="15"/>
-    </row>
-    <row r="68">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" ht="135" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="D70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74">
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76">
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78">
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79">
+      <c r="B78" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="15"/>
-    </row>
-    <row r="80">
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="11" t="s">
+      <c r="B80" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="E80" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="15"/>
-    </row>
-    <row r="84">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A85" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A86" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="B86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A87" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A89" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="15"/>
-    </row>
-    <row r="90">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A90" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="B90" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A91" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="15"/>
-    </row>
-    <row r="92">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A92" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="B92" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="15"/>
-    </row>
-    <row r="94">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A94" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C94" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="B94" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="90" x14ac:dyDescent="0.5">
       <c r="A95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A96" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97">
+      <c r="B96" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="15"/>
-    </row>
-    <row r="98">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.5">
       <c r="A98" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="11" t="s">
+      <c r="B98" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99">
+      <c r="D98" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A100" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="15"/>
-    </row>
-    <row r="102">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A102" s="4"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="15"/>
-    </row>
-    <row r="103">
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A103" s="4"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="15"/>
-    </row>
-    <row r="104">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A104" s="4"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="15"/>
-    </row>
-    <row r="105">
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A105" s="4"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="15"/>
-    </row>
-    <row r="106">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+    </row>
+    <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A106" s="4"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="15"/>
-    </row>
-    <row r="107">
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+    </row>
+    <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A107" s="4"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="15"/>
-    </row>
-    <row r="108">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A108" s="4"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A109" s="4"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="15"/>
-    </row>
-    <row r="110">
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+    </row>
+    <row r="110" spans="1:5" ht="15" x14ac:dyDescent="0.5">
       <c r="A110" s="4"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="15"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A101">
@@ -7860,6 +7900,6 @@
       <formula>NOT(ISERROR(SEARCH(("Participant"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>